--- a/work-in-progress/Peppol Code Lists - Document types v8.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCEB4AE-10B3-4786-8DCF-E2D9A2D8FC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A082F-9178-4061-9F00-1D5B77065B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="660" windowWidth="25470" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="486">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1482,6 +1482,51 @@
   <si>
     <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:09:1.0
 cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:02:1.0</t>
+  </si>
+  <si>
+    <t>XRechnung UBL Invoice V2.2</t>
+  </si>
+  <si>
+    <t>XRechnung UBL CreditNote V2.2</t>
+  </si>
+  <si>
+    <t>XRechnung CII Invoice V2.2</t>
+  </si>
+  <si>
+    <t>XRechnung UBL Invoice V2.2 Extension</t>
+  </si>
+  <si>
+    <t>XRechnung UBL CreditNote V2.2 Extension</t>
+  </si>
+  <si>
+    <t>XRechnung CII Invoice V2.2 Extension</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.2::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.2::2.1</t>
+  </si>
+  <si>
+    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.2::D16B</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.2#conformant#urn:xoev-de:kosit:extension:xrechnung_2.2::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.2#conformant#urn:xoev-de:kosit:extension:xrechnung_2.2::2.1</t>
+  </si>
+  <si>
+    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.2#conformant#urn:xoev-de:kosit:extension:xrechnung_2.2::D16B</t>
+  </si>
+  <si>
+    <t>TICC-204</t>
+  </si>
+  <si>
+    <t>TICC-205</t>
   </si>
 </sst>
 </file>
@@ -1580,16 +1625,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1618,9 +1657,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1628,6 +1664,15 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2038,28 +2083,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="103.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="6"/>
-    <col min="11" max="11" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="70.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="103.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="5"/>
+    <col min="11" max="11" width="19.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="70.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2072,16 +2117,16 @@
       <c r="C1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>460</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>459</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2110,26 +2155,26 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="b">
+      <c r="I2" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2143,26 +2188,26 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="I3" s="6" t="b">
+      <c r="I3" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2176,31 +2221,31 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="b">
+      <c r="I4" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2209,31 +2254,31 @@
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" s="6" t="b">
+      <c r="I5" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2242,31 +2287,31 @@
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2275,31 +2320,31 @@
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="I7" s="6" t="b">
+      <c r="I7" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2308,26 +2353,26 @@
       <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>7</v>
       </c>
-      <c r="I8" s="6" t="b">
+      <c r="I8" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2341,26 +2386,26 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="6" t="b">
+      <c r="I9" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2374,29 +2419,29 @@
       <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="I10" s="6" t="b">
+      <c r="I10" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2410,26 +2455,26 @@
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="22">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="I11" s="6" t="b">
+      <c r="I11" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>2</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2443,26 +2488,26 @@
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>2</v>
       </c>
-      <c r="I12" s="6" t="b">
+      <c r="I12" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2476,26 +2521,26 @@
       <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>7</v>
       </c>
-      <c r="I13" s="6" t="b">
+      <c r="I13" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>2</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2509,26 +2554,26 @@
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>2</v>
       </c>
-      <c r="I14" s="6" t="b">
+      <c r="I14" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" s="6" t="s">
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2542,26 +2587,26 @@
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>2</v>
       </c>
-      <c r="I15" s="6" t="b">
+      <c r="I15" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L15" s="6" t="s">
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2575,26 +2620,26 @@
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>2</v>
       </c>
-      <c r="I16" s="6" t="b">
+      <c r="I16" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2608,26 +2653,26 @@
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>7</v>
       </c>
-      <c r="I17" s="6" t="b">
+      <c r="I17" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>2</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="K17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2641,31 +2686,31 @@
       <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>7</v>
       </c>
-      <c r="I18" s="6" t="b">
+      <c r="I18" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>2</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="K18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2674,31 +2719,31 @@
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>7</v>
       </c>
-      <c r="I19" s="6" t="b">
+      <c r="I19" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2707,31 +2752,31 @@
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>7</v>
       </c>
-      <c r="I20" s="6" t="b">
+      <c r="I20" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2740,31 +2785,31 @@
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>7</v>
       </c>
-      <c r="I21" s="6" t="b">
+      <c r="I21" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2773,31 +2818,31 @@
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>7</v>
       </c>
-      <c r="I22" s="6" t="b">
+      <c r="I22" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" s="6" t="s">
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2806,31 +2851,31 @@
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>7</v>
       </c>
-      <c r="I23" s="6" t="b">
+      <c r="I23" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2839,2597 +2884,2597 @@
       <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>7</v>
       </c>
-      <c r="I24" s="6" t="b">
+      <c r="I24" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>2</v>
       </c>
-      <c r="I25" s="6" t="b">
+      <c r="I25" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L25" s="6" t="s">
+      <c r="K25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I26" s="6" t="b">
+      <c r="E26" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I26" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>7</v>
       </c>
-      <c r="I27" s="6" t="b">
+      <c r="I27" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>381</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>3</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="I28" s="6" t="b">
+      <c r="I28" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J28" s="6">
-        <v>1</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="22">
         <v>3</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>7</v>
       </c>
-      <c r="I29" s="6" t="b">
+      <c r="I29" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J29" s="6">
-        <v>1</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>7</v>
       </c>
-      <c r="I30" s="6" t="b">
+      <c r="I30" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J30" s="6">
-        <v>1</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L30" s="6" t="s">
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>7</v>
       </c>
-      <c r="I31" s="6" t="b">
+      <c r="I31" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J31" s="6">
-        <v>1</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="21">
         <v>2</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I32" s="6" t="b">
+      <c r="E32" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I32" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>3</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="21">
         <v>2</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I33" s="6" t="b">
+      <c r="E33" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I33" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>3</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L33" s="9" t="s">
+      <c r="K33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="22">
         <v>3</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I34" s="6" t="b">
+      <c r="E34" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I34" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L34" s="6" t="s">
+      <c r="K34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="22">
         <v>3</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I35" s="6" t="b">
+      <c r="I35" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L35" s="6" t="s">
+      <c r="K35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="E36" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="I36" s="6" t="b">
+      <c r="I36" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L36" s="6" t="s">
+      <c r="K36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="21">
         <v>3</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I37" s="6" t="b">
+      <c r="E37" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I37" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>3</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L37" s="9" t="s">
+      <c r="K37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="21">
         <v>3</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I38" s="6" t="b">
+      <c r="E38" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I38" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J38" s="6">
-        <v>1</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="21">
         <v>3</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I39" s="6" t="b">
+      <c r="E39" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I39" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J39" s="6">
-        <v>1</v>
-      </c>
-      <c r="K39" s="6" t="s">
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="21">
         <v>3</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I40" s="6" t="b">
+      <c r="E40" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I40" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J40" s="6">
-        <v>1</v>
-      </c>
-      <c r="K40" s="6" t="s">
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="21">
         <v>3</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I41" s="6" t="b">
+      <c r="E41" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I41" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J41" s="6">
-        <v>1</v>
-      </c>
-      <c r="K41" s="6" t="s">
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="21">
         <v>3</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I42" s="6" t="b">
+      <c r="E42" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I42" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J42" s="6">
-        <v>1</v>
-      </c>
-      <c r="K42" s="6" t="s">
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="21">
         <v>3</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I43" s="6" t="b">
+      <c r="E43" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I43" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J43" s="6">
-        <v>1</v>
-      </c>
-      <c r="K43" s="6" t="s">
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="21">
         <v>3</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>5</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="I44" s="6" t="b">
+      <c r="I44" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L44" s="9" t="s">
+      <c r="K44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="21">
         <v>3</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>5</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="I45" s="6" t="b">
+      <c r="I45" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L45" s="9" t="s">
+      <c r="K45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="21">
         <v>3</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>5</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="I46" s="6" t="b">
+      <c r="I46" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L46" s="9" t="s">
+      <c r="K46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="21">
         <v>3</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H47" s="6" t="s">
+      <c r="E47" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="I47" s="6" t="b">
+      <c r="I47" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L47" s="9" t="s">
+      <c r="K47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="21">
         <v>3</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H48" s="6" t="s">
+      <c r="E48" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="I48" s="6" t="b">
+      <c r="I48" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L48" s="9" t="s">
+      <c r="K48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="21">
         <v>3</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H49" s="6" t="s">
+      <c r="E49" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="I49" s="6" t="b">
+      <c r="I49" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="21">
         <v>3</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H50" s="6" t="s">
+      <c r="E50" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="I50" s="6" t="b">
+      <c r="I50" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L50" s="9" t="s">
+      <c r="K50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="21">
         <v>4</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>7</v>
       </c>
-      <c r="I51" s="6" t="b">
+      <c r="I51" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J51" s="6">
-        <v>1</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L51" s="6" t="s">
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L51" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="21">
         <v>4</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I52" s="6" t="b">
+      <c r="E52" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I52" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <v>3</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L52" s="6" t="s">
+      <c r="K52" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L52" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="21">
         <v>4</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I53" s="6" t="b">
+      <c r="E53" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I53" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <v>3</v>
       </c>
-      <c r="K53" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L53" s="9" t="s">
+      <c r="K53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="21">
         <v>4</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I54" s="6" t="b">
+      <c r="E54" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I54" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <v>3</v>
       </c>
-      <c r="K54" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L54" s="6" t="s">
+      <c r="K54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L54" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="21">
         <v>4</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I55" s="6" t="b">
+      <c r="E55" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I55" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <v>3</v>
       </c>
-      <c r="K55" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L55" s="9" t="s">
+      <c r="K55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="21">
         <v>4</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I56" s="6" t="b">
+      <c r="E56" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I56" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <v>3</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L56" s="9" t="s">
+      <c r="K56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="21">
         <v>4</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I57" s="6" t="b">
+      <c r="E57" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I57" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <v>3</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L57" s="9" t="s">
+      <c r="K57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="21">
         <v>4</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I58" s="6" t="b">
+      <c r="E58" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I58" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <v>3</v>
       </c>
-      <c r="K58" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L58" s="9" t="s">
+      <c r="K58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="21">
         <v>4</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I59" s="6" t="b">
+      <c r="E59" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I59" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="5">
         <v>3</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L59" s="9" t="s">
+      <c r="K59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="21">
         <v>4</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I60" s="6" t="b">
+      <c r="E60" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I60" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="5">
         <v>3</v>
       </c>
-      <c r="K60" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L60" s="9" t="s">
+      <c r="K60" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="21">
         <v>4</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I61" s="6" t="b">
+      <c r="E61" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I61" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K61" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L61" s="9" t="s">
+      <c r="K61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="21">
         <v>4</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I62" s="6" t="b">
+      <c r="E62" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I62" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K62" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L62" s="9" t="s">
+      <c r="K62" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="21">
         <v>4</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="I63" s="6" t="b">
+      <c r="E63" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I63" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="5">
         <v>3</v>
       </c>
-      <c r="K63" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L63" s="9" t="s">
+      <c r="K63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>379</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="21">
         <v>4</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <v>6</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="I64" s="6" t="b">
+      <c r="I64" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="5">
         <v>3</v>
       </c>
-      <c r="K64" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L64" s="9" t="s">
+      <c r="K64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="21">
         <v>6</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H65" s="6" t="s">
+      <c r="E65" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="I65" s="6" t="b">
+      <c r="I65" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <v>3</v>
       </c>
-      <c r="K65" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L65" s="9" t="s">
+      <c r="K65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="21">
         <v>5</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H66" s="6" t="s">
+      <c r="E66" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I66" s="6" t="b">
+      <c r="I66" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K66" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L66" s="9" t="s">
+      <c r="K66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="21">
         <v>5</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H67" s="6" t="s">
+      <c r="E67" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I67" s="6" t="b">
+      <c r="I67" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K67" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L67" s="9" t="s">
+      <c r="K67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="21">
         <v>5</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H68" s="6" t="s">
+      <c r="E68" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I68" s="6" t="b">
+      <c r="I68" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K68" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L68" s="9" t="s">
+      <c r="K68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="21">
         <v>6</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H69" s="6" t="s">
+      <c r="E69" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I69" s="6" t="b">
+      <c r="I69" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K69" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L69" s="9" t="s">
+      <c r="K69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="21">
         <v>6</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H70" s="6" t="s">
+      <c r="E70" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I70" s="6" t="b">
+      <c r="I70" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K70" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L70" s="9" t="s">
+      <c r="K70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L70" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="21">
         <v>6</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H71" s="6" t="s">
+      <c r="E71" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I71" s="6" t="b">
+      <c r="I71" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K71" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L71" s="9" t="s">
+      <c r="K71" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="21">
         <v>6</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H72" s="6" t="s">
+      <c r="E72" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H72" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I72" s="6" t="b">
+      <c r="I72" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="5">
         <v>3</v>
       </c>
-      <c r="K72" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L72" s="9" t="s">
+      <c r="K72" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="21">
         <v>6</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H73" s="6" t="s">
+      <c r="E73" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H73" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I73" s="6" t="b">
+      <c r="I73" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="5">
         <v>3</v>
       </c>
-      <c r="K73" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L73" s="9" t="s">
+      <c r="K73" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="21">
         <v>6</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H74" s="6" t="s">
+      <c r="E74" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="I74" s="6" t="b">
+      <c r="I74" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K74" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L74" s="9" t="s">
+      <c r="K74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="21">
         <v>6</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H75" s="6" t="s">
+      <c r="E75" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="I75" s="6" t="b">
+      <c r="I75" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K75" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L75" s="9" t="s">
+      <c r="K75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L75" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="21">
         <v>6</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H76" s="6" t="s">
+      <c r="E76" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H76" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I76" s="6" t="b">
+      <c r="I76" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K76" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L76" s="6" t="s">
+      <c r="K76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L76" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="21">
         <v>6</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H77" s="6" t="s">
+      <c r="E77" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I77" s="6" t="b">
+      <c r="I77" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K77" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L77" s="6" t="s">
+      <c r="K77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L77" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="21">
         <v>7</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="6" t="s">
+      <c r="G78" s="19"/>
+      <c r="H78" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I78" s="6" t="b">
+      <c r="I78" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K78" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L78" s="9" t="s">
+      <c r="K78" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L78" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="21">
         <v>7</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="6" t="s">
+      <c r="G79" s="19"/>
+      <c r="H79" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I79" s="6" t="b">
+      <c r="I79" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K79" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L79" s="9" t="s">
+      <c r="K79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L79" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="21">
         <v>7</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G80" s="22"/>
-      <c r="H80" s="6" t="s">
+      <c r="G80" s="19"/>
+      <c r="H80" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I80" s="6" t="b">
+      <c r="I80" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K80" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L80" s="9" t="s">
+      <c r="K80" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="21">
         <v>7</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H81" s="6" t="s">
+      <c r="E81" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H81" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="I81" s="6" t="b">
+      <c r="I81" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K81" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L81" s="9" t="s">
+      <c r="K81" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L81" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="21">
         <v>7</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H82" s="6" t="s">
+      <c r="E82" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="I82" s="6" t="b">
+      <c r="I82" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K82" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L82" s="9" t="s">
+      <c r="K82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L82" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="21">
         <v>7</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="F83" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="6" t="s">
+      <c r="G83" s="19"/>
+      <c r="H83" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="I83" s="6" t="b">
+      <c r="I83" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K83" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L83" s="9" t="s">
+      <c r="K83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L83" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H84" s="6" t="s">
+      <c r="E84" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I84" s="6" t="b">
+      <c r="I84" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K84" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L84" s="9" t="s">
+      <c r="K84" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L84" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="21">
         <v>7</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G85" s="22"/>
-      <c r="H85" s="6" t="s">
+      <c r="G85" s="19"/>
+      <c r="H85" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I85" s="6" t="b">
+      <c r="I85" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K85" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L85" s="9" t="s">
+      <c r="K85" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L85" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="21">
         <v>7</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="6" t="s">
+      <c r="G86" s="19"/>
+      <c r="H86" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I86" s="6" t="b">
+      <c r="I86" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K86" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L86" s="9" t="s">
+      <c r="K86" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L86" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="21">
         <v>7</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G87" s="22"/>
-      <c r="H87" s="6" t="s">
+      <c r="G87" s="19"/>
+      <c r="H87" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I87" s="6" t="b">
+      <c r="I87" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K87" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L87" s="9" t="s">
+      <c r="K87" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L87" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="21">
         <v>7</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H88" s="6" t="s">
+      <c r="E88" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H88" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I88" s="6" t="b">
+      <c r="I88" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K88" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L88" s="9" t="s">
+      <c r="K88" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L88" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="21">
         <v>7</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F89" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G89" s="22"/>
-      <c r="H89" s="6" t="s">
+      <c r="G89" s="19"/>
+      <c r="H89" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I89" s="6" t="b">
+      <c r="I89" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K89" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L89" s="6" t="s">
+      <c r="K89" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L89" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="21">
         <v>7</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F90" s="12" t="s">
+      <c r="F90" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G90" s="22"/>
-      <c r="H90" s="6" t="s">
+      <c r="G90" s="19"/>
+      <c r="H90" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I90" s="6" t="b">
+      <c r="I90" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K90" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L90" s="6" t="s">
+      <c r="K90" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L90" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="21">
         <v>7</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G91" s="22"/>
-      <c r="H91" s="6" t="s">
+      <c r="G91" s="19"/>
+      <c r="H91" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I91" s="6" t="b">
+      <c r="I91" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K91" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L91" s="6" t="s">
+      <c r="K91" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L91" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="21">
         <v>7</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="6" t="s">
+      <c r="G92" s="19"/>
+      <c r="H92" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I92" s="6" t="b">
+      <c r="I92" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K92" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L92" s="6" t="s">
+      <c r="K92" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L92" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="21">
         <v>7</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H93" s="6" t="s">
+      <c r="E93" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H93" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I93" s="6" t="b">
+      <c r="I93" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K93" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L93" s="6" t="s">
+      <c r="K93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L93" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="21">
         <v>7</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H94" s="6" t="s">
+      <c r="E94" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H94" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I94" s="6" t="b">
+      <c r="I94" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K94" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L94" s="6" t="s">
+      <c r="K94" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L94" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="21">
         <v>7</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H95" s="6" t="s">
+      <c r="E95" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H95" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I95" s="6" t="b">
+      <c r="I95" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K95" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L95" s="6" t="s">
+      <c r="K95" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L95" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H96" s="6" t="s">
+      <c r="E96" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H96" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I96" s="6" t="b">
+      <c r="I96" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K96" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L96" s="9" t="s">
+      <c r="K96" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L96" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H97" s="6" t="s">
+      <c r="E97" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H97" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I97" s="6" t="b">
+      <c r="I97" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K97" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L97" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>274</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F98" s="12" t="s">
+      <c r="F98" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G98" s="22"/>
-      <c r="H98" s="6" t="s">
+      <c r="G98" s="19"/>
+      <c r="H98" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="I98" s="6" t="b">
+      <c r="I98" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K98" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L98" s="9" t="s">
+      <c r="K98" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L98" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H99" s="6" t="s">
+      <c r="E99" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H99" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I99" s="6" t="b">
+      <c r="I99" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K99" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L99" s="9" t="s">
+      <c r="K99" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L99" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H100" s="6" t="s">
+      <c r="E100" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H100" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="I100" s="6" t="b">
+      <c r="I100" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K100" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L100" s="6" t="s">
+      <c r="K100" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L100" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H101" s="6" t="s">
+      <c r="E101" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H101" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I101" s="6" t="b">
+      <c r="I101" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K101" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L101" s="9" t="s">
+      <c r="K101" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L101" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="13" t="s">
+      <c r="B102" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H102" s="6" t="s">
+      <c r="E102" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H102" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="I102" s="6" t="b">
+      <c r="I102" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K102" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L102" s="15" t="s">
+      <c r="K102" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L102" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103" s="6" t="s">
+      <c r="B103" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H103" s="6" t="s">
+      <c r="E103" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H103" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I103" s="6" t="b">
+      <c r="I103" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L103" s="6" t="s">
+      <c r="L103" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H104" s="6" t="s">
+      <c r="E104" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H104" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I104" s="6" t="b">
+      <c r="I104" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K104" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L104" s="6" t="s">
+      <c r="K104" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L104" s="5" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H105" s="6" t="s">
+      <c r="E105" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H105" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I105" s="6" t="b">
+      <c r="I105" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K105" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L105" s="6" t="s">
+      <c r="K105" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L105" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E106" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H106" s="6" t="s">
+      <c r="E106" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H106" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I106" s="6" t="b">
+      <c r="I106" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K106" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L106" s="6" t="s">
+      <c r="K106" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L106" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H107" s="6" t="s">
+      <c r="E107" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I107" s="6" t="b">
+      <c r="I107" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K107" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L107" s="6" t="s">
+      <c r="K107" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L107" s="5" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5437,29 +5482,29 @@
       <c r="A108" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H108" s="6" t="s">
+      <c r="E108" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I108" s="6" t="b">
+      <c r="I108" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K108" s="16" t="s">
+      <c r="K108" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L108" s="6" t="s">
+      <c r="L108" s="5" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5467,29 +5512,29 @@
       <c r="A109" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H109" s="6" t="s">
+      <c r="E109" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I109" s="6" t="b">
+      <c r="I109" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K109" s="16" t="s">
+      <c r="K109" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L109" s="6" t="s">
+      <c r="L109" s="5" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5497,29 +5542,29 @@
       <c r="A110" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H110" s="6" t="s">
+      <c r="E110" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I110" s="6" t="b">
+      <c r="I110" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K110" s="16" t="s">
+      <c r="K110" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L110" s="6" t="s">
+      <c r="L110" s="5" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5527,29 +5572,29 @@
       <c r="A111" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H111" s="6" t="s">
+      <c r="E111" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I111" s="6" t="b">
+      <c r="I111" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K111" s="16" t="s">
+      <c r="K111" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L111" s="6" t="s">
+      <c r="L111" s="5" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5557,29 +5602,29 @@
       <c r="A112" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H112" s="6" t="s">
+      <c r="E112" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I112" s="6" t="b">
+      <c r="I112" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K112" s="16" t="s">
+      <c r="K112" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L112" s="6" t="s">
+      <c r="L112" s="5" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5587,29 +5632,29 @@
       <c r="A113" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H113" s="6" t="s">
+      <c r="E113" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I113" s="6" t="b">
+      <c r="I113" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K113" s="16" t="s">
+      <c r="K113" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L113" s="6" t="s">
+      <c r="L113" s="5" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5617,29 +5662,29 @@
       <c r="A114" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H114" s="6" t="s">
+      <c r="E114" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I114" s="6" t="b">
+      <c r="I114" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K114" s="16" t="s">
+      <c r="K114" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L114" s="6" t="s">
+      <c r="L114" s="5" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5647,29 +5692,29 @@
       <c r="A115" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H115" s="6" t="s">
+      <c r="E115" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I115" s="6" t="b">
+      <c r="I115" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K115" s="16" t="s">
+      <c r="K115" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L115" s="6" t="s">
+      <c r="L115" s="5" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5677,29 +5722,29 @@
       <c r="A116" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H116" s="6" t="s">
+      <c r="E116" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I116" s="6" t="b">
+      <c r="I116" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K116" s="16" t="s">
+      <c r="K116" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L116" s="6" t="s">
+      <c r="L116" s="5" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5707,29 +5752,29 @@
       <c r="A117" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H117" s="6" t="s">
+      <c r="E117" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I117" s="6" t="b">
+      <c r="I117" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K117" s="16" t="s">
+      <c r="K117" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L117" s="6" t="s">
+      <c r="L117" s="5" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5737,29 +5782,29 @@
       <c r="A118" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H118" s="6" t="s">
+      <c r="E118" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H118" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I118" s="6" t="b">
+      <c r="I118" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K118" s="16" t="s">
+      <c r="K118" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L118" s="6" t="s">
+      <c r="L118" s="5" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5767,29 +5812,29 @@
       <c r="A119" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H119" s="6" t="s">
+      <c r="E119" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I119" s="6" t="b">
+      <c r="I119" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K119" s="16" t="s">
+      <c r="K119" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L119" s="6" t="s">
+      <c r="L119" s="5" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5797,29 +5842,29 @@
       <c r="A120" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H120" s="6" t="s">
+      <c r="E120" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I120" s="6" t="b">
+      <c r="I120" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K120" s="16" t="s">
+      <c r="K120" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L120" s="6" t="s">
+      <c r="L120" s="5" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5827,29 +5872,29 @@
       <c r="A121" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H121" s="6" t="s">
+      <c r="E121" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H121" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I121" s="6" t="b">
+      <c r="I121" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K121" s="16" t="s">
+      <c r="K121" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L121" s="6" t="s">
+      <c r="L121" s="5" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5857,29 +5902,29 @@
       <c r="A122" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H122" s="6" t="s">
+      <c r="E122" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H122" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I122" s="6" t="b">
+      <c r="I122" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K122" s="16" t="s">
+      <c r="K122" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L122" s="6" t="s">
+      <c r="L122" s="5" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5887,29 +5932,29 @@
       <c r="A123" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H123" s="6" t="s">
+      <c r="E123" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H123" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I123" s="6" t="b">
+      <c r="I123" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K123" s="16" t="s">
+      <c r="K123" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L123" s="6" t="s">
+      <c r="L123" s="5" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5917,29 +5962,29 @@
       <c r="A124" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H124" s="6" t="s">
+      <c r="E124" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H124" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I124" s="6" t="b">
+      <c r="I124" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K124" s="16" t="s">
+      <c r="K124" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L124" s="6" t="s">
+      <c r="L124" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5947,29 +5992,29 @@
       <c r="A125" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H125" s="6" t="s">
+      <c r="E125" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H125" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I125" s="6" t="b">
+      <c r="I125" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K125" s="16" t="s">
+      <c r="K125" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L125" s="6" t="s">
+      <c r="L125" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5977,29 +6022,29 @@
       <c r="A126" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H126" s="6" t="s">
+      <c r="E126" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H126" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I126" s="6" t="b">
+      <c r="I126" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K126" s="16" t="s">
+      <c r="K126" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L126" s="6" t="s">
+      <c r="L126" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6007,29 +6052,29 @@
       <c r="A127" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H127" s="6" t="s">
+      <c r="E127" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H127" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I127" s="6" t="b">
+      <c r="I127" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K127" s="16" t="s">
+      <c r="K127" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L127" s="6" t="s">
+      <c r="L127" s="5" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6037,29 +6082,29 @@
       <c r="A128" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H128" s="6" t="s">
+      <c r="E128" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H128" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I128" s="6" t="b">
+      <c r="I128" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K128" s="16" t="s">
+      <c r="K128" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L128" s="6" t="s">
+      <c r="L128" s="5" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6067,1318 +6112,1492 @@
       <c r="A129" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H129" s="6" t="s">
+      <c r="E129" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I129" s="6" t="b">
+      <c r="I129" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K129" s="16" t="s">
+      <c r="K129" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="L129" s="6" t="s">
+      <c r="L129" s="5" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
+      <c r="A130" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C130" s="6" t="s">
+      <c r="B130" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E130" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H130" s="6" t="s">
+      <c r="E130" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H130" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I130" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" s="6">
-        <v>1</v>
-      </c>
-      <c r="K130" s="6" t="s">
+      <c r="I130" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" s="5">
+        <v>1</v>
+      </c>
+      <c r="K130" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L130" s="6" t="s">
+      <c r="L130" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C131" s="6" t="s">
+      <c r="B131" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H131" s="6" t="s">
+      <c r="E131" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H131" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I131" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" s="6">
-        <v>1</v>
-      </c>
-      <c r="K131" s="6" t="s">
+      <c r="I131" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" s="5">
+        <v>1</v>
+      </c>
+      <c r="K131" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L131" s="6" t="s">
+      <c r="L131" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C132" s="6" t="s">
+      <c r="B132" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H132" s="6" t="s">
+      <c r="E132" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H132" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I132" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" s="6">
-        <v>1</v>
-      </c>
-      <c r="K132" s="6" t="s">
+      <c r="I132" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" s="5">
+        <v>1</v>
+      </c>
+      <c r="K132" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L132" s="6" t="s">
+      <c r="L132" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C133" s="6" t="s">
+      <c r="B133" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H133" s="6" t="s">
+      <c r="E133" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H133" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I133" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" s="6">
-        <v>1</v>
-      </c>
-      <c r="K133" s="6" t="s">
+      <c r="I133" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" s="5">
+        <v>1</v>
+      </c>
+      <c r="K133" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L133" s="6" t="s">
+      <c r="L133" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C134" s="6" t="s">
+      <c r="B134" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H134" s="6" t="s">
+      <c r="E134" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H134" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I134" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K134" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L134" s="6" t="s">
+      <c r="I134" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L134" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C135" s="6" t="s">
+      <c r="B135" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H135" s="6" t="s">
+      <c r="E135" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H135" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I135" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K135" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L135" s="6" t="s">
+      <c r="I135" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L135" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C136" s="6" t="s">
+      <c r="B136" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E136" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H136" s="6" t="s">
+      <c r="E136" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H136" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I136" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K136" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L136" s="6" t="s">
+      <c r="I136" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L136" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C137" s="6" t="s">
+      <c r="B137" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H137" s="6" t="s">
+      <c r="E137" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H137" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I137" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K137" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L137" s="6" t="s">
+      <c r="I137" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L137" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C138" s="6" t="s">
+      <c r="B138" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H138" s="6" t="s">
+      <c r="E138" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H138" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I138" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K138" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L138" s="6" t="s">
+      <c r="I138" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L138" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C139" s="6" t="s">
+      <c r="B139" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H139" s="6" t="s">
+      <c r="E139" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H139" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I139" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L139" s="6" t="s">
+      <c r="I139" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L139" s="5" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C140" s="6" t="s">
+      <c r="B140" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H140" s="6" t="s">
+      <c r="E140" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H140" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I140" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K140" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L140" s="6" t="s">
+      <c r="I140" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L140" s="5" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C141" s="6" t="s">
+      <c r="B141" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E141" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H141" s="6" t="s">
+      <c r="E141" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H141" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I141" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K141" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L141" s="6" t="s">
+      <c r="I141" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L141" s="5" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C142" s="6" t="s">
+      <c r="B142" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H142" s="6" t="s">
+      <c r="E142" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H142" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I142" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K142" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L142" s="6" t="s">
+      <c r="I142" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L142" s="5" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C143" s="6" t="s">
+      <c r="B143" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E143" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H143" s="6" t="s">
+      <c r="E143" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H143" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I143" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K143" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L143" s="6" t="s">
+      <c r="I143" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L143" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C144" s="6" t="s">
+      <c r="B144" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H144" s="6" t="s">
+      <c r="E144" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H144" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I144" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K144" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L144" s="6" t="s">
+      <c r="I144" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L144" s="5" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C145" s="6" t="s">
+      <c r="B145" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H145" s="6" t="s">
+      <c r="E145" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H145" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I145" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K145" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L145" s="6" t="s">
+      <c r="I145" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L145" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C146" s="6" t="s">
+      <c r="B146" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H146" s="6" t="s">
+      <c r="E146" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H146" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I146" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K146" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L146" s="6" t="s">
+      <c r="I146" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L146" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C147" s="6" t="s">
+      <c r="B147" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H147" s="6" t="s">
+      <c r="E147" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H147" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I147" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K147" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L147" s="6" t="s">
+      <c r="I147" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L147" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="5" t="s">
         <v>385</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H148" s="6" t="s">
+      <c r="E148" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H148" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="I148" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K148" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L148" s="9" t="s">
+      <c r="I148" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L148" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H149" s="6" t="s">
+      <c r="E149" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H149" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="I149" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K149" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L149" s="9" t="s">
+      <c r="I149" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L149" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="5" t="s">
         <v>387</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H150" s="6" t="s">
+      <c r="E150" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H150" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="I150" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K150" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L150" s="9" t="s">
+      <c r="I150" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L150" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E151" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H151" s="6" t="s">
+      <c r="E151" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H151" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="I151" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K151" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L151" s="9" t="s">
+      <c r="I151" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L151" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H152" s="6" t="s">
+      <c r="E152" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H152" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="I152" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K152" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L152" s="9" t="s">
+      <c r="I152" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L152" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>394</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E153" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H153" s="6" t="s">
+      <c r="E153" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H153" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="I153" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K153" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L153" s="9" t="s">
+      <c r="I153" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L153" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E154" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H154" s="6" t="s">
+      <c r="E154" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H154" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="I154" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K154" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L154" s="6" t="s">
+      <c r="I154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L154" s="5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="5" t="s">
         <v>412</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E155" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H155" s="6" t="s">
+      <c r="E155" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H155" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="I155" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K155" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L155" s="6" t="s">
+      <c r="I155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L155" s="5" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E156" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H156" s="6" t="s">
+      <c r="E156" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H156" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="I156" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K156" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L156" s="6" t="s">
+      <c r="I156" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L156" s="5" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="5" t="s">
         <v>432</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E157" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H157" s="6" t="s">
+      <c r="E157" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H157" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I157" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K157" s="6" t="s">
+      <c r="I157" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K157" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L157" s="6" t="s">
+      <c r="L157" s="5" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="5" t="s">
         <v>433</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E158" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H158" s="6" t="s">
+      <c r="E158" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H158" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I158" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K158" s="6" t="s">
+      <c r="I158" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K158" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L158" s="6" t="s">
+      <c r="L158" s="5" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="5" t="s">
         <v>434</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H159" s="6" t="s">
+      <c r="E159" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H159" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I159" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K159" s="6" t="s">
+      <c r="I159" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K159" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L159" s="6" t="s">
+      <c r="L159" s="5" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="5" t="s">
         <v>435</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E160" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H160" s="6" t="s">
+      <c r="E160" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H160" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I160" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K160" s="6" t="s">
+      <c r="I160" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K160" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L160" s="6" t="s">
+      <c r="L160" s="5" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="5" t="s">
         <v>436</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E161" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H161" s="6" t="s">
+      <c r="E161" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H161" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I161" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K161" s="6" t="s">
+      <c r="I161" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K161" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L161" s="6" t="s">
+      <c r="L161" s="5" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="5" t="s">
         <v>437</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E162" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H162" s="6" t="s">
+      <c r="E162" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H162" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I162" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K162" s="6" t="s">
+      <c r="I162" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K162" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L162" s="6" t="s">
+      <c r="L162" s="5" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E163" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H163" s="6" t="s">
+      <c r="E163" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H163" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I163" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K163" s="6" t="s">
+      <c r="I163" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K163" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L163" s="6" t="s">
+      <c r="L163" s="5" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E164" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H164" s="6" t="s">
+      <c r="E164" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H164" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I164" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K164" s="6" t="s">
+      <c r="I164" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K164" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L164" s="6" t="s">
+      <c r="L164" s="5" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E165" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H165" s="6" t="s">
+      <c r="E165" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H165" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I165" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K165" s="6" t="s">
+      <c r="I165" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K165" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L165" s="6" t="s">
+      <c r="L165" s="5" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>441</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E166" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H166" s="6" t="s">
+      <c r="E166" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H166" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I166" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K166" s="6" t="s">
+      <c r="I166" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L166" s="6" t="s">
+      <c r="L166" s="5" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="5" t="s">
         <v>442</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E167" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H167" s="6" t="s">
+      <c r="E167" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H167" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I167" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K167" s="6" t="s">
+      <c r="I167" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K167" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L167" s="6" t="s">
+      <c r="L167" s="5" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E168" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H168" s="6" t="s">
+      <c r="E168" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H168" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I168" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K168" s="6" t="s">
+      <c r="I168" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K168" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L168" s="6" t="s">
+      <c r="L168" s="5" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="5" t="s">
         <v>444</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E169" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H169" s="6" t="s">
+      <c r="E169" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H169" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I169" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K169" s="6" t="s">
+      <c r="I169" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K169" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L169" s="6" t="s">
+      <c r="L169" s="5" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="5" t="s">
         <v>445</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E170" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H170" s="6" t="s">
+      <c r="E170" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H170" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I170" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K170" s="6" t="s">
+      <c r="I170" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K170" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L170" s="6" t="s">
+      <c r="L170" s="5" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>448</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E171" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H171" s="6" t="s">
+      <c r="E171" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H171" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I171" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K171" s="6" t="s">
+      <c r="I171" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K171" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L171" s="6" t="s">
+      <c r="L171" s="5" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="5" t="s">
         <v>447</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E172" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H172" s="6" t="s">
+      <c r="E172" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H172" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I172" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K172" s="6" t="s">
+      <c r="I172" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L172" s="6" t="s">
+      <c r="L172" s="5" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="5" t="s">
         <v>446</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H173" s="6" t="s">
+      <c r="E173" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H173" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I173" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K173" s="6" t="s">
+      <c r="I173" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K173" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L173" s="6" t="s">
+      <c r="L173" s="5" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I174" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L174" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I175" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L175" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I176" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L176" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="I177" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L177" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="I178" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L178" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="I179" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v8.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2A082F-9178-4061-9F00-1D5B77065B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B68B7-E6C0-4D07-9BCF-314D020EC817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="493">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1527,6 +1527,27 @@
   </si>
   <si>
     <t>TICC-205</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol:end-user-reporting:1.0::EndUserReport##urn:fdc:peppol.eu:oo:trns:end-user-report:1::1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:oo:bis:reporting:1</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>TICC-213</t>
+  </si>
+  <si>
+    <t>OpenPeppol End User Report</t>
+  </si>
+  <si>
+    <t>OpenPeppol Transaction Statistics Report</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol:transaction-statistics-reporting:1.0::TransactionStatisticsReport##urn:fdc:peppol.eu:oo:trns:transaction-statistics-reporting:1::1.0</t>
   </si>
 </sst>
 </file>
@@ -2083,11 +2104,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L179"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7600,6 +7621,64 @@
         <v>154</v>
       </c>
     </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="I180" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="I181" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="L181" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L173" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B68B7-E6C0-4D07-9BCF-314D020EC817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA761E00-342B-4850-B40D-96698CAA6E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="505">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -484,9 +484,6 @@
   </si>
   <si>
     <t>Profile name</t>
-  </si>
-  <si>
-    <t>Issued by OpenPEPPOL?</t>
   </si>
   <si>
     <t>DHSC Customized Ordering profile OrderResponse V1</t>
@@ -1549,12 +1546,51 @@
   <si>
     <t>urn:fdc:peppol:transaction-statistics-reporting:1.0::TransactionStatisticsReport##urn:fdc:peppol.eu:oo:trns:transaction-statistics-reporting:1::1.0</t>
   </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:DespatchAdvice-2::DespatchAdvice##urn:fdc:peppol.eu:logistics:trns:advanced_despatch_advice:1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:logistics:trns:despatch_advice_response:1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:WeightStatement-2::WeightStatement##urn:fdc:peppol.eu:logistics:trns:weight_statement:1::2.3</t>
+  </si>
+  <si>
+    <t>BEAst Despatch Advice Response</t>
+  </si>
+  <si>
+    <t>BEAst Weight Statement</t>
+  </si>
+  <si>
+    <t>TICC-215</t>
+  </si>
+  <si>
+    <t>Issued by OpenPeppol?</t>
+  </si>
+  <si>
+    <t>Logistics Incubator</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_only:1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_w_response:1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:weight_statement:1</t>
+  </si>
+  <si>
+    <t>BEAst Advanced Despatch Advice with Response</t>
+  </si>
+  <si>
+    <t>BEAst Advanced Despatch Advice only</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1601,6 +1637,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1628,11 +1673,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1696,10 +1742,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{8757061E-72AB-4191-9614-3313A86B1B18}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2104,14 +2154,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
@@ -2124,37 +2174,37 @@
     <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="5"/>
     <col min="11" max="11" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="70.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="74.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="45">
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>458</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>459</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>148</v>
+        <v>498</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>135</v>
@@ -2163,10 +2213,10 @@
         <v>136</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2180,7 +2230,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -2196,10 +2246,10 @@
         <v>137</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2213,7 +2263,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -2229,10 +2279,10 @@
         <v>137</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2296,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F4" s="6">
         <v>2</v>
@@ -2262,10 +2312,10 @@
         <v>137</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45">
       <c r="A5" s="5" t="s">
         <v>121</v>
       </c>
@@ -2279,7 +2329,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
@@ -2295,10 +2345,10 @@
         <v>138</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45">
       <c r="A6" s="5" t="s">
         <v>124</v>
       </c>
@@ -2312,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
@@ -2328,10 +2378,10 @@
         <v>138</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
@@ -2345,7 +2395,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -2361,10 +2411,10 @@
         <v>138</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -2378,7 +2428,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F8" s="6">
         <v>7</v>
@@ -2394,10 +2444,10 @@
         <v>138</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2411,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2427,12 +2477,12 @@
         <v>138</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45">
       <c r="A10" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>56</v>
@@ -2444,13 +2494,13 @@
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10" s="6">
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I10" s="5" t="b">
         <f>TRUE</f>
@@ -2463,10 +2513,10 @@
         <v>138</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -2480,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F11" s="6">
         <v>7</v>
@@ -2496,10 +2546,10 @@
         <v>138</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -2513,7 +2563,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F12" s="6">
         <v>2</v>
@@ -2529,10 +2579,10 @@
         <v>138</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2546,7 +2596,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F13" s="6">
         <v>7</v>
@@ -2562,10 +2612,10 @@
         <v>138</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30">
       <c r="A14" s="4" t="s">
         <v>122</v>
       </c>
@@ -2579,7 +2629,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -2595,10 +2645,10 @@
         <v>138</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45">
       <c r="A15" s="4" t="s">
         <v>123</v>
       </c>
@@ -2612,7 +2662,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -2628,10 +2678,10 @@
         <v>138</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30">
       <c r="A16" s="4" t="s">
         <v>122</v>
       </c>
@@ -2645,7 +2695,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
@@ -2661,10 +2711,10 @@
         <v>138</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45">
       <c r="A17" s="4" t="s">
         <v>106</v>
       </c>
@@ -2678,7 +2728,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F17" s="6">
         <v>7</v>
@@ -2694,10 +2744,10 @@
         <v>138</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45">
       <c r="A18" s="4" t="s">
         <v>107</v>
       </c>
@@ -2711,7 +2761,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F18" s="6">
         <v>7</v>
@@ -2727,10 +2777,10 @@
         <v>138</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="5" t="s">
         <v>117</v>
       </c>
@@ -2744,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F19" s="6">
         <v>7</v>
@@ -2760,10 +2810,10 @@
         <v>138</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="45">
       <c r="A20" s="5" t="s">
         <v>118</v>
       </c>
@@ -2777,7 +2827,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F20" s="6">
         <v>7</v>
@@ -2793,10 +2843,10 @@
         <v>138</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45">
       <c r="A21" s="5" t="s">
         <v>118</v>
       </c>
@@ -2810,7 +2860,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F21" s="6">
         <v>7</v>
@@ -2826,10 +2876,10 @@
         <v>138</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30">
       <c r="A22" s="5" t="s">
         <v>119</v>
       </c>
@@ -2843,7 +2893,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F22" s="6">
         <v>7</v>
@@ -2859,10 +2909,10 @@
         <v>138</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="5" t="s">
         <v>120</v>
       </c>
@@ -2876,7 +2926,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F23" s="6">
         <v>7</v>
@@ -2892,10 +2942,10 @@
         <v>138</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" s="5" t="s">
         <v>119</v>
       </c>
@@ -2909,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F24" s="6">
         <v>7</v>
@@ -2925,10 +2975,10 @@
         <v>138</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="45">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -2942,7 +2992,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F25" s="6">
         <v>2</v>
@@ -2955,10 +3005,10 @@
         <v>138</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="45">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -2972,7 +3022,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I26" s="5" t="b">
         <f>FALSE</f>
@@ -2982,10 +3032,10 @@
         <v>138</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="45">
       <c r="A27" s="5" t="s">
         <v>115</v>
       </c>
@@ -2999,7 +3049,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F27" s="6">
         <v>7</v>
@@ -3015,12 +3065,12 @@
         <v>138</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="45">
       <c r="A28" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
@@ -3032,13 +3082,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I28" s="5" t="b">
         <f>TRUE</f>
@@ -3051,10 +3101,10 @@
         <v>138</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="45">
       <c r="A29" s="5" t="s">
         <v>116</v>
       </c>
@@ -3068,7 +3118,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F29" s="6">
         <v>7</v>
@@ -3084,10 +3134,10 @@
         <v>138</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="45">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -3101,7 +3151,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F30" s="6">
         <v>7</v>
@@ -3117,10 +3167,10 @@
         <v>138</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -3134,7 +3184,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F31" s="6">
         <v>7</v>
@@ -3150,10 +3200,10 @@
         <v>138</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30">
       <c r="A32" s="5" t="s">
         <v>103</v>
       </c>
@@ -3167,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I32" s="5" t="b">
         <f>TRUE</f>
@@ -3180,10 +3230,10 @@
         <v>138</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30">
       <c r="A33" s="5" t="s">
         <v>104</v>
       </c>
@@ -3197,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I33" s="5" t="b">
         <f>TRUE</f>
@@ -3210,10 +3260,10 @@
         <v>138</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="45">
       <c r="A34" s="5" t="s">
         <v>114</v>
       </c>
@@ -3227,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I34" s="5" t="b">
         <f>FALSE</f>
@@ -3237,12 +3287,12 @@
         <v>138</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="45">
       <c r="A35" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>56</v>
@@ -3254,13 +3304,13 @@
         <v>3</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I35" s="5" t="b">
         <f>FALSE</f>
@@ -3270,27 +3320,27 @@
         <v>138</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="45">
       <c r="A36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I36" s="5" t="b">
         <f>FALSE</f>
@@ -3300,10 +3350,10 @@
         <v>138</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30">
       <c r="A37" s="5" t="s">
         <v>105</v>
       </c>
@@ -3317,7 +3367,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I37" s="5" t="b">
         <f>TRUE</f>
@@ -3330,10 +3380,10 @@
         <v>138</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="45">
       <c r="A38" s="5" t="s">
         <v>113</v>
       </c>
@@ -3347,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I38" s="5" t="b">
         <f>TRUE</f>
@@ -3360,10 +3410,10 @@
         <v>137</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="45">
       <c r="A39" s="5" t="s">
         <v>112</v>
       </c>
@@ -3377,7 +3427,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I39" s="5" t="b">
         <f>TRUE</f>
@@ -3390,10 +3440,10 @@
         <v>137</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="45">
       <c r="A40" s="5" t="s">
         <v>111</v>
       </c>
@@ -3407,7 +3457,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I40" s="5" t="b">
         <f>TRUE</f>
@@ -3420,10 +3470,10 @@
         <v>137</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="45">
       <c r="A41" s="5" t="s">
         <v>110</v>
       </c>
@@ -3437,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I41" s="5" t="b">
         <f>TRUE</f>
@@ -3450,10 +3500,10 @@
         <v>137</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="45">
       <c r="A42" s="5" t="s">
         <v>108</v>
       </c>
@@ -3467,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I42" s="5" t="b">
         <f>TRUE</f>
@@ -3480,10 +3530,10 @@
         <v>137</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="45">
       <c r="A43" s="5" t="s">
         <v>109</v>
       </c>
@@ -3497,7 +3547,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I43" s="5" t="b">
         <f>TRUE</f>
@@ -3510,10 +3560,10 @@
         <v>137</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30">
       <c r="A44" s="5" t="s">
         <v>125</v>
       </c>
@@ -3527,13 +3577,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F44" s="6">
         <v>5</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I44" s="5" t="b">
         <f>FALSE</f>
@@ -3543,10 +3593,10 @@
         <v>138</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30">
       <c r="A45" s="5" t="s">
         <v>126</v>
       </c>
@@ -3560,13 +3610,13 @@
         <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F45" s="6">
         <v>5</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I45" s="5" t="b">
         <f>FALSE</f>
@@ -3576,10 +3626,10 @@
         <v>138</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30">
       <c r="A46" s="5" t="s">
         <v>127</v>
       </c>
@@ -3593,13 +3643,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F46" s="6">
         <v>5</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I46" s="5" t="b">
         <f>FALSE</f>
@@ -3609,10 +3659,10 @@
         <v>138</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -3626,10 +3676,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I47" s="5" t="b">
         <f>FALSE</f>
@@ -3639,10 +3689,10 @@
         <v>138</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -3656,10 +3706,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I48" s="5" t="b">
         <f>FALSE</f>
@@ -3669,10 +3719,10 @@
         <v>138</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -3686,10 +3736,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I49" s="5" t="b">
         <f>FALSE</f>
@@ -3699,10 +3749,10 @@
         <v>138</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="30">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -3716,10 +3766,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I50" s="5" t="b">
         <f>FALSE</f>
@@ -3729,10 +3779,10 @@
         <v>138</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="30">
       <c r="A51" s="5" t="s">
         <v>70</v>
       </c>
@@ -3746,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F51" s="6">
         <v>7</v>
@@ -3762,10 +3812,10 @@
         <v>138</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5" t="s">
         <v>80</v>
       </c>
@@ -3779,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I52" s="5" t="b">
         <f>TRUE</f>
@@ -3792,10 +3842,10 @@
         <v>138</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30">
       <c r="A53" s="5" t="s">
         <v>81</v>
       </c>
@@ -3809,7 +3859,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I53" s="5" t="b">
         <f>TRUE</f>
@@ -3822,10 +3872,10 @@
         <v>138</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="30">
       <c r="A54" s="5" t="s">
         <v>82</v>
       </c>
@@ -3839,7 +3889,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
@@ -3852,10 +3902,10 @@
         <v>138</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="30">
       <c r="A55" s="5" t="s">
         <v>83</v>
       </c>
@@ -3869,7 +3919,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I55" s="5" t="b">
         <f>TRUE</f>
@@ -3882,10 +3932,10 @@
         <v>138</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="30">
       <c r="A56" s="5" t="s">
         <v>84</v>
       </c>
@@ -3899,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I56" s="5" t="b">
         <f>TRUE</f>
@@ -3912,10 +3962,10 @@
         <v>138</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="30">
       <c r="A57" s="5" t="s">
         <v>85</v>
       </c>
@@ -3929,7 +3979,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I57" s="5" t="b">
         <f>TRUE</f>
@@ -3942,10 +3992,10 @@
         <v>138</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="30">
       <c r="A58" s="5" t="s">
         <v>86</v>
       </c>
@@ -3959,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I58" s="5" t="b">
         <f>TRUE</f>
@@ -3972,10 +4022,10 @@
         <v>138</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="30">
       <c r="A59" s="5" t="s">
         <v>87</v>
       </c>
@@ -3989,7 +4039,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I59" s="5" t="b">
         <f>TRUE</f>
@@ -4002,10 +4052,10 @@
         <v>138</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="30">
       <c r="A60" s="5" t="s">
         <v>88</v>
       </c>
@@ -4019,7 +4069,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I60" s="5" t="b">
         <f>TRUE</f>
@@ -4032,10 +4082,10 @@
         <v>138</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="30">
       <c r="A61" s="5" t="s">
         <v>89</v>
       </c>
@@ -4049,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I61" s="5" t="b">
         <f>FALSE</f>
@@ -4059,10 +4109,10 @@
         <v>138</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="30">
       <c r="A62" s="5" t="s">
         <v>91</v>
       </c>
@@ -4076,7 +4126,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I62" s="5" t="b">
         <f>FALSE</f>
@@ -4086,10 +4136,10 @@
         <v>138</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="30">
       <c r="A63" s="5" t="s">
         <v>93</v>
       </c>
@@ -4103,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I63" s="5" t="b">
         <f>TRUE</f>
@@ -4116,12 +4166,12 @@
         <v>138</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="45">
       <c r="A64" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>56</v>
@@ -4133,13 +4183,13 @@
         <v>4</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F64" s="6">
         <v>6</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I64" s="5" t="b">
         <f>TRUE</f>
@@ -4152,10 +4202,10 @@
         <v>138</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="45">
       <c r="A65" s="5" t="s">
         <v>94</v>
       </c>
@@ -4163,16 +4213,16 @@
         <v>56</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="21">
         <v>6</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I65" s="5" t="b">
         <f>TRUE</f>
@@ -4185,10 +4235,10 @@
         <v>138</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="45">
       <c r="A66" s="5" t="s">
         <v>97</v>
       </c>
@@ -4202,10 +4252,10 @@
         <v>5</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I66" s="5" t="b">
         <f>FALSE</f>
@@ -4215,10 +4265,10 @@
         <v>138</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="45">
       <c r="A67" s="5" t="s">
         <v>98</v>
       </c>
@@ -4232,10 +4282,10 @@
         <v>5</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I67" s="5" t="b">
         <f>FALSE</f>
@@ -4245,10 +4295,10 @@
         <v>138</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="45">
       <c r="A68" s="5" t="s">
         <v>99</v>
       </c>
@@ -4262,10 +4312,10 @@
         <v>5</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I68" s="5" t="b">
         <f>FALSE</f>
@@ -4275,10 +4325,10 @@
         <v>138</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="30">
       <c r="A69" s="5" t="s">
         <v>128</v>
       </c>
@@ -4292,10 +4342,10 @@
         <v>6</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I69" s="5" t="b">
         <f>FALSE</f>
@@ -4305,10 +4355,10 @@
         <v>138</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="45">
       <c r="A70" s="5" t="s">
         <v>129</v>
       </c>
@@ -4322,10 +4372,10 @@
         <v>6</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I70" s="5" t="b">
         <f>FALSE</f>
@@ -4335,10 +4385,10 @@
         <v>138</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="30">
       <c r="A71" s="5" t="s">
         <v>133</v>
       </c>
@@ -4352,10 +4402,10 @@
         <v>6</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I71" s="5" t="b">
         <f>FALSE</f>
@@ -4365,10 +4415,10 @@
         <v>138</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="45">
       <c r="A72" s="8" t="s">
         <v>141</v>
       </c>
@@ -4382,10 +4432,10 @@
         <v>6</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I72" s="5" t="b">
         <f>TRUE</f>
@@ -4398,10 +4448,10 @@
         <v>138</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="45">
       <c r="A73" s="8" t="s">
         <v>140</v>
       </c>
@@ -4415,10 +4465,10 @@
         <v>6</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I73" s="5" t="b">
         <f>TRUE</f>
@@ -4431,10 +4481,10 @@
         <v>138</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="45">
       <c r="A74" s="5" t="s">
         <v>139</v>
       </c>
@@ -4448,10 +4498,10 @@
         <v>6</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I74" s="5" t="b">
         <f>FALSE</f>
@@ -4461,10 +4511,10 @@
         <v>138</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="45">
       <c r="A75" s="5" t="s">
         <v>142</v>
       </c>
@@ -4478,10 +4528,10 @@
         <v>6</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I75" s="5" t="b">
         <f>FALSE</f>
@@ -4491,27 +4541,27 @@
         <v>138</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="45">
       <c r="A76" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="D76" s="21">
         <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I76" s="5" t="b">
         <f>FALSE</f>
@@ -4521,27 +4571,27 @@
         <v>138</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="45">
       <c r="A77" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D77" s="21">
         <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I77" s="5" t="b">
         <f>FALSE</f>
@@ -4551,31 +4601,31 @@
         <v>138</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="30">
       <c r="A78" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D78" s="21">
         <v>7</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G78" s="19"/>
       <c r="H78" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I78" s="5" t="b">
         <f>FALSE</f>
@@ -4585,31 +4635,31 @@
         <v>138</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="30">
       <c r="A79" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D79" s="21">
         <v>7</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G79" s="19"/>
       <c r="H79" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I79" s="5" t="b">
         <f>FALSE</f>
@@ -4619,31 +4669,31 @@
         <v>138</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="30">
       <c r="A80" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="21">
         <v>7</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G80" s="19"/>
       <c r="H80" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I80" s="5" t="b">
         <f>FALSE</f>
@@ -4653,27 +4703,27 @@
         <v>138</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="30">
       <c r="A81" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" s="21">
         <v>7</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I81" s="5" t="b">
         <f>FALSE</f>
@@ -4683,27 +4733,27 @@
         <v>138</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="30">
       <c r="A82" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D82" s="21">
         <v>7</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I82" s="5" t="b">
         <f>FALSE</f>
@@ -4713,31 +4763,31 @@
         <v>138</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="30">
       <c r="A83" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D83" s="21">
         <v>7</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G83" s="19"/>
       <c r="H83" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I83" s="5" t="b">
         <f>FALSE</f>
@@ -4747,27 +4797,27 @@
         <v>138</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="30">
       <c r="A84" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D84" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="E84" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I84" s="5" t="b">
         <f>FALSE</f>
@@ -4777,31 +4827,31 @@
         <v>138</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="30">
       <c r="A85" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D85" s="21">
         <v>7</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I85" s="5" t="b">
         <f>FALSE</f>
@@ -4811,31 +4861,31 @@
         <v>138</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="45">
       <c r="A86" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D86" s="21">
         <v>7</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I86" s="5" t="b">
         <f>FALSE</f>
@@ -4845,31 +4895,31 @@
         <v>138</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="45">
       <c r="A87" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D87" s="21">
         <v>7</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G87" s="19"/>
       <c r="H87" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I87" s="5" t="b">
         <f>FALSE</f>
@@ -4879,27 +4929,27 @@
         <v>138</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="45">
       <c r="A88" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D88" s="21">
         <v>7</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I88" s="5" t="b">
         <f>FALSE</f>
@@ -4909,31 +4959,31 @@
         <v>138</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="30">
       <c r="A89" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D89" s="21">
         <v>7</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G89" s="19"/>
       <c r="H89" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I89" s="5" t="b">
         <f>FALSE</f>
@@ -4943,31 +4993,31 @@
         <v>138</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="30">
       <c r="A90" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D90" s="21">
         <v>7</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G90" s="19"/>
       <c r="H90" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I90" s="5" t="b">
         <f>FALSE</f>
@@ -4977,31 +5027,31 @@
         <v>138</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="30">
       <c r="A91" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D91" s="21">
         <v>7</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G91" s="19"/>
       <c r="H91" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I91" s="5" t="b">
         <f>FALSE</f>
@@ -5011,31 +5061,31 @@
         <v>138</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="45">
       <c r="A92" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D92" s="21">
         <v>7</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I92" s="5" t="b">
         <f>FALSE</f>
@@ -5045,27 +5095,27 @@
         <v>138</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D93" s="21">
         <v>7</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I93" s="5" t="b">
         <f>FALSE</f>
@@ -5075,27 +5125,27 @@
         <v>138</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D94" s="21">
         <v>7</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I94" s="5" t="b">
         <f>FALSE</f>
@@ -5105,27 +5155,27 @@
         <v>138</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="30">
       <c r="A95" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" s="21">
         <v>7</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I95" s="5" t="b">
         <f>FALSE</f>
@@ -5135,27 +5185,27 @@
         <v>138</v>
       </c>
       <c r="L95" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="30">
+      <c r="A96" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="B96" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D96" s="22" t="s">
-        <v>232</v>
-      </c>
       <c r="E96" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I96" s="5" t="b">
         <f>FALSE</f>
@@ -5165,27 +5215,27 @@
         <v>138</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="45">
       <c r="A97" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I97" s="5" t="b">
         <f>FALSE</f>
@@ -5195,31 +5245,31 @@
         <v>138</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="45">
       <c r="A98" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I98" s="5" t="b">
         <f>FALSE</f>
@@ -5229,27 +5279,27 @@
         <v>138</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="45">
       <c r="A99" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H99" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="I99" s="5" t="b">
         <f>FALSE</f>
@@ -5259,27 +5309,27 @@
         <v>138</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="30">
       <c r="A100" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I100" s="5" t="b">
         <f>FALSE</f>
@@ -5289,27 +5339,27 @@
         <v>138</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="45">
       <c r="A101" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I101" s="5" t="b">
         <f>FALSE</f>
@@ -5319,27 +5369,27 @@
         <v>138</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="45">
       <c r="A102" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="11" t="s">
+      <c r="D102" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H102" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="I102" s="5" t="b">
         <f>FALSE</f>
@@ -5349,54 +5399,54 @@
         <v>138</v>
       </c>
       <c r="L102" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H103" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="I103" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="30">
       <c r="A104" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I104" s="5" t="b">
         <f>FALSE</f>
@@ -5406,27 +5456,27 @@
         <v>138</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="30">
       <c r="A105" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I105" s="5" t="b">
         <f>FALSE</f>
@@ -5436,27 +5486,27 @@
         <v>138</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="30">
       <c r="A106" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I106" s="5" t="b">
         <f>FALSE</f>
@@ -5466,27 +5516,27 @@
         <v>138</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="45">
       <c r="A107" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C107" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="I107" s="5" t="b">
         <f>FALSE</f>
@@ -5496,687 +5546,687 @@
         <v>138</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="30">
       <c r="A108" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D108" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I108" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="60">
       <c r="A109" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I109" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="60">
       <c r="A110" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I110" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K110" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="45">
       <c r="A111" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I111" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="45">
       <c r="A112" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I112" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="45">
       <c r="A113" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I113" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K113" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="45">
       <c r="A114" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D114" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I114" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="60">
       <c r="A115" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D115" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I115" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K115" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="45">
       <c r="A116" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I116" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K116" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="30">
       <c r="A117" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D117" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I117" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K117" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="45">
       <c r="A118" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D118" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H118" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I118" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K118" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="45">
       <c r="A119" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D119" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I119" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K119" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="45">
       <c r="A120" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D120" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I120" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K120" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="45">
       <c r="A121" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D121" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H121" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I121" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K121" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="30">
       <c r="A122" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D122" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H122" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I122" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K122" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="45">
       <c r="A123" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D123" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H123" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I123" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K123" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D124" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H124" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I124" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K124" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="45">
       <c r="A125" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D125" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H125" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I125" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K125" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="45">
       <c r="A126" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D126" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H126" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I126" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K126" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D127" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H127" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I127" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="45">
       <c r="A128" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D128" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H128" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I128" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K128" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="45">
       <c r="A129" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D129" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="E129" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="I129" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L129" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="15" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
-        <v>329</v>
-      </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I130" s="5" t="b">
         <v>1</v>
@@ -6188,27 +6238,27 @@
         <v>137</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="30">
       <c r="A131" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I131" s="5" t="b">
         <v>1</v>
@@ -6220,27 +6270,27 @@
         <v>137</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I132" s="5" t="b">
         <v>1</v>
@@ -6252,27 +6302,27 @@
         <v>137</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="30">
       <c r="A133" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H133" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="I133" s="5" t="b">
         <v>1</v>
@@ -6284,694 +6334,694 @@
         <v>137</v>
       </c>
       <c r="L133" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="45">
+      <c r="A134" s="5" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+      <c r="B134" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I134" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="45">
+      <c r="A135" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C134" s="5" t="s">
+      <c r="B135" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D134" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E134" s="5" t="s">
+      <c r="D135" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I135" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="45">
+      <c r="A136" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I136" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="45">
+      <c r="A137" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I137" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="45">
+      <c r="A138" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I138" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="45">
+      <c r="A139" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I139" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="30">
+      <c r="A140" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I140" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="45">
+      <c r="A141" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I141" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="45">
+      <c r="A142" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I142" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="45">
+      <c r="A143" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I143" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="45">
+      <c r="A144" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I144" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="30">
+      <c r="A145" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I145" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L145" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="45">
+      <c r="A146" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I146" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="45">
+      <c r="A147" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I147" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="30">
+      <c r="A148" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I148" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L148" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="30">
+      <c r="A149" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I149" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L149" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="30">
+      <c r="A150" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I150" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L150" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="30">
+      <c r="A151" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I151" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L151" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="45">
+      <c r="A152" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I152" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L152" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="45">
+      <c r="A153" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I153" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L153" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="45">
+      <c r="A154" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="H134" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I134" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K134" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L134" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D135" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I135" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K135" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L135" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I136" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K136" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L136" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I137" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K137" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L137" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I138" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K138" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L138" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D139" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I139" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L139" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D140" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I140" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K140" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L140" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D141" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I141" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K141" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L141" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I142" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K142" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L142" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I143" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K143" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L143" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I144" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K144" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L144" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I145" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K145" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L145" s="5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I146" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K146" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L146" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I147" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K147" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L147" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="I148" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K148" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L148" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D149" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="I149" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K149" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L149" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="I150" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K150" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L150" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="I151" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K151" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L151" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D152" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="I152" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K152" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L152" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D153" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="I153" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K153" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L153" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+      <c r="D154" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="45">
+      <c r="A155" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C154" s="5" t="s">
+      <c r="B155" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H155" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D154" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H154" s="5" t="s">
+      <c r="I155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L155" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="I154" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K154" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L154" s="5" t="s">
+    </row>
+    <row r="156" spans="1:12" ht="45">
+      <c r="A156" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="I156" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L156" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="I155" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K155" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L155" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+    <row r="157" spans="1:12" ht="30">
+      <c r="A157" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H156" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="I156" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K156" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L156" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="D157" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I157" s="5" t="b">
         <v>0</v>
@@ -6980,27 +7030,27 @@
         <v>137</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="30">
       <c r="A158" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I158" s="5" t="b">
         <v>0</v>
@@ -7009,27 +7059,27 @@
         <v>137</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="30">
       <c r="A159" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I159" s="5" t="b">
         <v>0</v>
@@ -7038,27 +7088,27 @@
         <v>137</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="30">
       <c r="A160" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I160" s="5" t="b">
         <v>0</v>
@@ -7067,27 +7117,27 @@
         <v>137</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I161" s="5" t="b">
         <v>0</v>
@@ -7096,27 +7146,27 @@
         <v>137</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="30">
       <c r="A162" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I162" s="5" t="b">
         <v>0</v>
@@ -7125,27 +7175,27 @@
         <v>137</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="30">
       <c r="A163" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I163" s="5" t="b">
         <v>0</v>
@@ -7154,27 +7204,27 @@
         <v>137</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="30">
       <c r="A164" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I164" s="5" t="b">
         <v>0</v>
@@ -7183,27 +7233,27 @@
         <v>137</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="30">
       <c r="A165" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I165" s="5" t="b">
         <v>0</v>
@@ -7212,27 +7262,27 @@
         <v>137</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="30">
       <c r="A166" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I166" s="5" t="b">
         <v>0</v>
@@ -7241,27 +7291,27 @@
         <v>137</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I167" s="5" t="b">
         <v>0</v>
@@ -7270,27 +7320,27 @@
         <v>137</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I168" s="5" t="b">
         <v>0</v>
@@ -7299,27 +7349,27 @@
         <v>137</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="30">
       <c r="A169" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I169" s="5" t="b">
         <v>0</v>
@@ -7328,27 +7378,27 @@
         <v>137</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="30">
       <c r="A170" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I170" s="5" t="b">
         <v>0</v>
@@ -7357,27 +7407,27 @@
         <v>137</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I171" s="5" t="b">
         <v>0</v>
@@ -7386,27 +7436,27 @@
         <v>137</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="30">
       <c r="A172" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I172" s="5" t="b">
         <v>0</v>
@@ -7415,27 +7465,27 @@
         <v>137</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="30">
       <c r="A173" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H173" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="D173" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="I173" s="5" t="b">
         <v>0</v>
@@ -7444,239 +7494,355 @@
         <v>137</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="30">
       <c r="A174" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="I174" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L174" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="30">
+      <c r="A175" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C174" s="5" t="s">
+      <c r="B175" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D174" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H174" s="5" t="s">
+      <c r="D175" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="I175" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L175" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="30">
+      <c r="A176" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="I176" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L176" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="30">
+      <c r="A177" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H177" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="I174" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K174" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L174" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="D175" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H175" s="5" t="s">
+      <c r="I177" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L177" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="45">
+      <c r="A178" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H178" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="I175" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K175" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L175" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H176" s="5" t="s">
+      <c r="I178" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L178" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" ht="45">
+      <c r="A179" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H179" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="I176" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K176" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L176" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H177" s="5" t="s">
+      <c r="I179" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="I177" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K177" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L177" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D178" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H178" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="I178" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K178" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L178" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+      <c r="D180" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D179" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H179" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="I179" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K179" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L179" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+      <c r="E180" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I180" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" ht="30">
+      <c r="A181" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C180" s="5" t="s">
+      <c r="B181" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I181" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="L181" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D180" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H180" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="I180" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K180" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="L180" s="5" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C181" s="5" t="s">
+    </row>
+    <row r="182" spans="1:12" ht="30">
+      <c r="A182" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="D181" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="I181" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K181" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="L181" s="5" t="s">
-        <v>487</v>
+      <c r="D182" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I182" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="L182" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="30">
+      <c r="A183" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H183" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I183" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="L183" s="23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="30">
+      <c r="A184" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I184" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="L184" s="23" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="30">
+      <c r="A185" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I185" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="L185" s="23" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v8.1.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA761E00-342B-4850-B40D-96698CAA6E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38305259-BF0C-43FF-8F6C-29A437D4216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="504">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1571,19 +1571,17 @@
     <t>Logistics Incubator</t>
   </si>
   <si>
-    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_only:1</t>
-  </si>
-  <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_w_response:1</t>
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:weight_statement:1</t>
   </si>
   <si>
-    <t>BEAst Advanced Despatch Advice with Response</t>
-  </si>
-  <si>
-    <t>BEAst Advanced Despatch Advice only</t>
+    <t>BEAst Advanced Despatch Advice</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_only:1
+cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_w_response:1</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1676,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1744,6 +1742,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2154,11 +2155,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
+      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7731,7 +7732,7 @@
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="A182" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>56</v>
@@ -7754,19 +7755,19 @@
       <c r="K182" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="L182" s="23" t="s">
-        <v>500</v>
+      <c r="L182" s="24" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="A183" s="5" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D183" s="22" t="s">
         <v>476</v>
@@ -7784,18 +7785,18 @@
         <v>499</v>
       </c>
       <c r="L183" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="A184" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D184" s="22" t="s">
         <v>476</v>
@@ -7814,35 +7815,6 @@
       </c>
       <c r="L184" s="23" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="30">
-      <c r="A185" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="H185" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="I185" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K185" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="L185" s="23" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
